--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Epo-Epor.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Epo-Epor.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H2">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I2">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J2">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.257317</v>
+        <v>1.119424333333334</v>
       </c>
       <c r="N2">
-        <v>0.7719510000000001</v>
+        <v>3.358273000000001</v>
       </c>
       <c r="O2">
-        <v>0.3793410153126887</v>
+        <v>0.4918982535955602</v>
       </c>
       <c r="P2">
-        <v>0.3793410153126887</v>
+        <v>0.4918982535955601</v>
       </c>
       <c r="Q2">
-        <v>0.018933899494</v>
+        <v>0.2050285369131112</v>
       </c>
       <c r="R2">
-        <v>0.170405095446</v>
+        <v>1.845256832218</v>
       </c>
       <c r="S2">
-        <v>0.07409827126435038</v>
+        <v>0.1873054334171898</v>
       </c>
       <c r="T2">
-        <v>0.07409827126435037</v>
+        <v>0.1873054334171897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H3">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I3">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J3">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.250245</v>
       </c>
       <c r="O3">
-        <v>0.1229717849668227</v>
+        <v>0.03665427988463741</v>
       </c>
       <c r="P3">
-        <v>0.1229717849668227</v>
+        <v>0.03665427988463741</v>
       </c>
       <c r="Q3">
-        <v>0.00613784253</v>
+        <v>0.01527790213</v>
       </c>
       <c r="R3">
-        <v>0.05524058277</v>
+        <v>0.13750111917</v>
       </c>
       <c r="S3">
-        <v>0.02402059443222091</v>
+        <v>0.01395724772389995</v>
       </c>
       <c r="T3">
-        <v>0.0240205944322209</v>
+        <v>0.01395724772389995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H4">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I4">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J4">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1641326666666667</v>
+        <v>0.4813416666666667</v>
       </c>
       <c r="N4">
-        <v>0.492398</v>
+        <v>1.444025</v>
       </c>
       <c r="O4">
-        <v>0.2419671161225742</v>
+        <v>0.2115115047669825</v>
       </c>
       <c r="P4">
-        <v>0.2419671161225742</v>
+        <v>0.2115115047669825</v>
       </c>
       <c r="Q4">
-        <v>0.01207720987866667</v>
+        <v>0.08816029340555556</v>
       </c>
       <c r="R4">
-        <v>0.108694888908</v>
+        <v>0.79344264065</v>
       </c>
       <c r="S4">
-        <v>0.04726445146650966</v>
+        <v>0.08053952983877651</v>
       </c>
       <c r="T4">
-        <v>0.04726445146650966</v>
+        <v>0.08053952983877649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H5">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I5">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J5">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1734616666666667</v>
+        <v>0.5915423333333333</v>
       </c>
       <c r="N5">
-        <v>0.520385</v>
+        <v>1.774627</v>
       </c>
       <c r="O5">
-        <v>0.2557200835979143</v>
+        <v>0.2599359617528199</v>
       </c>
       <c r="P5">
-        <v>0.2557200835979142</v>
+        <v>0.25993596175282</v>
       </c>
       <c r="Q5">
-        <v>0.01276365635666666</v>
+        <v>0.1083441332424444</v>
       </c>
       <c r="R5">
-        <v>0.11487290721</v>
+        <v>0.975097199182</v>
       </c>
       <c r="S5">
-        <v>0.04995087627569492</v>
+        <v>0.09897863556323359</v>
       </c>
       <c r="T5">
-        <v>0.04995087627569491</v>
+        <v>0.09897863556323359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I6">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J6">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.257317</v>
+        <v>1.119424333333334</v>
       </c>
       <c r="N6">
-        <v>0.7719510000000001</v>
+        <v>3.358273000000001</v>
       </c>
       <c r="O6">
-        <v>0.3793410153126887</v>
+        <v>0.4918982535955602</v>
       </c>
       <c r="P6">
-        <v>0.3793410153126887</v>
+        <v>0.4918982535955601</v>
       </c>
       <c r="Q6">
-        <v>0.04398113627400001</v>
+        <v>0.1913342459020001</v>
       </c>
       <c r="R6">
-        <v>0.3958302264660001</v>
+        <v>1.722008213118</v>
       </c>
       <c r="S6">
-        <v>0.1721212350988733</v>
+        <v>0.1747949060935504</v>
       </c>
       <c r="T6">
-        <v>0.1721212350988733</v>
+        <v>0.1747949060935503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I7">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J7">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.250245</v>
       </c>
       <c r="O7">
-        <v>0.1229717849668227</v>
+        <v>0.03665427988463741</v>
       </c>
       <c r="P7">
-        <v>0.1229717849668227</v>
+        <v>0.03665427988463741</v>
       </c>
       <c r="Q7">
         <v>0.01425745863</v>
@@ -883,10 +883,10 @@
         <v>0.12831712767</v>
       </c>
       <c r="S7">
-        <v>0.05579690741681474</v>
+        <v>0.0130250135338552</v>
       </c>
       <c r="T7">
-        <v>0.05579690741681473</v>
+        <v>0.0130250135338552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I8">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J8">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1641326666666667</v>
+        <v>0.4813416666666667</v>
       </c>
       <c r="N8">
-        <v>0.492398</v>
+        <v>1.444025</v>
       </c>
       <c r="O8">
-        <v>0.2419671161225742</v>
+        <v>0.2115115047669825</v>
       </c>
       <c r="P8">
-        <v>0.2419671161225742</v>
+        <v>0.2115115047669825</v>
       </c>
       <c r="Q8">
-        <v>0.028053883652</v>
+        <v>0.08227188035000002</v>
       </c>
       <c r="R8">
-        <v>0.252484952868</v>
+        <v>0.7404469231500002</v>
       </c>
       <c r="S8">
-        <v>0.1097895487151581</v>
+        <v>0.07516012375162444</v>
       </c>
       <c r="T8">
-        <v>0.1097895487151581</v>
+        <v>0.07516012375162442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I9">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J9">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1734616666666667</v>
+        <v>0.5915423333333333</v>
       </c>
       <c r="N9">
-        <v>0.520385</v>
+        <v>1.774627</v>
       </c>
       <c r="O9">
-        <v>0.2557200835979143</v>
+        <v>0.2599359617528199</v>
       </c>
       <c r="P9">
-        <v>0.2557200835979142</v>
+        <v>0.25993596175282</v>
       </c>
       <c r="Q9">
-        <v>0.02964841499</v>
+        <v>0.101107598698</v>
       </c>
       <c r="R9">
-        <v>0.26683573491</v>
+        <v>0.9099683882820001</v>
       </c>
       <c r="S9">
-        <v>0.1160297854746314</v>
+        <v>0.09236764248054846</v>
       </c>
       <c r="T9">
-        <v>0.1160297854746314</v>
+        <v>0.09236764248054846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H10">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I10">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J10">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.257317</v>
+        <v>1.119424333333334</v>
       </c>
       <c r="N10">
-        <v>0.7719510000000001</v>
+        <v>3.358273000000001</v>
       </c>
       <c r="O10">
-        <v>0.3793410153126887</v>
+        <v>0.4918982535955602</v>
       </c>
       <c r="P10">
-        <v>0.3793410153126887</v>
+        <v>0.4918982535955601</v>
       </c>
       <c r="Q10">
-        <v>0.006622396084333334</v>
+        <v>0.1122069906174445</v>
       </c>
       <c r="R10">
-        <v>0.059601564759</v>
+        <v>1.009862915557</v>
       </c>
       <c r="S10">
-        <v>0.02591690642661352</v>
+        <v>0.1025075793178281</v>
       </c>
       <c r="T10">
-        <v>0.02591690642661352</v>
+        <v>0.1025075793178281</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H11">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I11">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J11">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.250245</v>
       </c>
       <c r="O11">
-        <v>0.1229717849668227</v>
+        <v>0.03665427988463741</v>
       </c>
       <c r="P11">
-        <v>0.1229717849668227</v>
+        <v>0.03665427988463741</v>
       </c>
       <c r="Q11">
-        <v>0.002146796245</v>
+        <v>0.008361213745</v>
       </c>
       <c r="R11">
-        <v>0.019321166205</v>
+        <v>0.075250923705</v>
       </c>
       <c r="S11">
-        <v>0.008401538761822838</v>
+        <v>0.007638452617279741</v>
       </c>
       <c r="T11">
-        <v>0.008401538761822834</v>
+        <v>0.00763845261727974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H12">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I12">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J12">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1641326666666667</v>
+        <v>0.4813416666666667</v>
       </c>
       <c r="N12">
-        <v>0.492398</v>
+        <v>1.444025</v>
       </c>
       <c r="O12">
-        <v>0.2419671161225742</v>
+        <v>0.2115115047669825</v>
       </c>
       <c r="P12">
-        <v>0.2419671161225742</v>
+        <v>0.2115115047669825</v>
       </c>
       <c r="Q12">
-        <v>0.004224173020222223</v>
+        <v>0.04824792374722223</v>
       </c>
       <c r="R12">
-        <v>0.038017557182</v>
+        <v>0.4342313137250001</v>
       </c>
       <c r="S12">
-        <v>0.01653140275827306</v>
+        <v>0.04407727043764063</v>
       </c>
       <c r="T12">
-        <v>0.01653140275827305</v>
+        <v>0.04407727043764062</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H13">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I13">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J13">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1734616666666667</v>
+        <v>0.5915423333333333</v>
       </c>
       <c r="N13">
-        <v>0.520385</v>
+        <v>1.774627</v>
       </c>
       <c r="O13">
-        <v>0.2557200835979143</v>
+        <v>0.2599359617528199</v>
       </c>
       <c r="P13">
-        <v>0.2557200835979142</v>
+        <v>0.25993596175282</v>
       </c>
       <c r="Q13">
-        <v>0.004464267273888888</v>
+        <v>0.05929403450477777</v>
       </c>
       <c r="R13">
-        <v>0.040178405465</v>
+        <v>0.533646310543</v>
       </c>
       <c r="S13">
-        <v>0.01747101739723542</v>
+        <v>0.054168531850168</v>
       </c>
       <c r="T13">
-        <v>0.01747101739723541</v>
+        <v>0.054168531850168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H14">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I14">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J14">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.257317</v>
+        <v>1.119424333333334</v>
       </c>
       <c r="N14">
-        <v>0.7719510000000001</v>
+        <v>3.358273000000001</v>
       </c>
       <c r="O14">
-        <v>0.3793410153126887</v>
+        <v>0.4918982535955602</v>
       </c>
       <c r="P14">
-        <v>0.3793410153126887</v>
+        <v>0.4918982535955601</v>
       </c>
       <c r="Q14">
-        <v>0.02739336741366667</v>
+        <v>0.0298725846178889</v>
       </c>
       <c r="R14">
-        <v>0.246540306723</v>
+        <v>0.268853261561</v>
       </c>
       <c r="S14">
-        <v>0.1072046025228515</v>
+        <v>0.02729033476699189</v>
       </c>
       <c r="T14">
-        <v>0.1072046025228515</v>
+        <v>0.02729033476699188</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H15">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I15">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J15">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.250245</v>
       </c>
       <c r="O15">
-        <v>0.1229717849668227</v>
+        <v>0.03665427988463741</v>
       </c>
       <c r="P15">
-        <v>0.1229717849668227</v>
+        <v>0.03665427988463741</v>
       </c>
       <c r="Q15">
-        <v>0.008880166265000001</v>
+        <v>0.002225984885</v>
       </c>
       <c r="R15">
-        <v>0.079921496385</v>
+        <v>0.020033863965</v>
       </c>
       <c r="S15">
-        <v>0.03475274435596427</v>
+        <v>0.00203356600960252</v>
       </c>
       <c r="T15">
-        <v>0.03475274435596426</v>
+        <v>0.00203356600960252</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H16">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I16">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J16">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1641326666666667</v>
+        <v>0.4813416666666667</v>
       </c>
       <c r="N16">
-        <v>0.492398</v>
+        <v>1.444025</v>
       </c>
       <c r="O16">
-        <v>0.2419671161225742</v>
+        <v>0.2115115047669825</v>
       </c>
       <c r="P16">
-        <v>0.2419671161225742</v>
+        <v>0.2115115047669825</v>
       </c>
       <c r="Q16">
-        <v>0.01747318071711111</v>
+        <v>0.01284492326944445</v>
       </c>
       <c r="R16">
-        <v>0.157258626454</v>
+        <v>0.115604309425</v>
       </c>
       <c r="S16">
-        <v>0.06838171318263339</v>
+        <v>0.01173458073894095</v>
       </c>
       <c r="T16">
-        <v>0.06838171318263338</v>
+        <v>0.01173458073894095</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H17">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I17">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J17">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1734616666666667</v>
+        <v>0.5915423333333333</v>
       </c>
       <c r="N17">
-        <v>0.520385</v>
+        <v>1.774627</v>
       </c>
       <c r="O17">
-        <v>0.2557200835979143</v>
+        <v>0.2599359617528199</v>
       </c>
       <c r="P17">
-        <v>0.2557200835979142</v>
+        <v>0.25993596175282</v>
       </c>
       <c r="Q17">
-        <v>0.01846632428944444</v>
+        <v>0.01578570152655556</v>
       </c>
       <c r="R17">
-        <v>0.166196918605</v>
+        <v>0.142071313739</v>
       </c>
       <c r="S17">
-        <v>0.07226840445035251</v>
+        <v>0.01442115185886987</v>
       </c>
       <c r="T17">
-        <v>0.07226840445035249</v>
+        <v>0.01442115185886987</v>
       </c>
     </row>
   </sheetData>
